--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notescours/developpementweb3/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notescours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB2721-7D15-2D43-9B16-E19A31BFEC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF55DEA0-C49F-AE46-B9F5-972C16586BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
+    <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="horaire" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -143,107 +143,854 @@
     <t>Évaluation formative</t>
   </si>
   <si>
-    <t>Projet API</t>
-  </si>
-  <si>
-    <t>Examen API</t>
-  </si>
-  <si>
-    <t>Examen React</t>
-  </si>
-  <si>
-    <t>Projet Application React</t>
-  </si>
-  <si>
-    <t>[JavaScript asynchrone](javascript_async.md) &lt;br/&gt; [MongoDB](mongodb.md)</t>
-  </si>
-  <si>
-    <t>[Mongoose](introduction_mongoose.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 6 - Mongoose](exercice6_mongoose.md)</t>
-  </si>
-  <si>
-    <t>[Mongoose - la suite](mongoose2.md)</t>
-  </si>
-  <si>
-    <t>Retour sur formatif &lt;br/&gt; [Express et JWT](express_jwt.md)</t>
-  </si>
-  <si>
-    <t>[Introduction à React](introduction_react.md)</t>
-  </si>
-  <si>
-    <t>[React et les styles](react_styles.md)</t>
-  </si>
-  <si>
-    <t>[Routes, contexte et API](react3.md)</t>
-  </si>
-  <si>
-    <t>[Netlify](netlify.md)</t>
-  </si>
-  <si>
-    <t>[React et PWA](pwa.md)</t>
-  </si>
-  <si>
-    <t>[Authentification](authentification.md)</t>
-  </si>
-  <si>
-    <t>[Internationalisation](internationalisation.md) &lt;br /&gt;[Accessibilité](accessibilite.md)</t>
-  </si>
-  <si>
-    <t>[Introduction à TypeScript](introduction_typescript.md) &lt;br/&gt; [npm](npm.md)</t>
-  </si>
-  <si>
-    <t>[TypeScript 2](typescript_2.md)&lt;br/&gt;[Express - Générateur](generateur_express.md)</t>
-  </si>
-  <si>
-    <t>[Intergiciels](intergiciels_express.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 3 - Intergiciels Express](exercice3_intergiciels_express.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 1 - lodash](exercice1_lodash.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 2 - Express avec modèle](exercice2_express_avec_modele.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 4 - MongoDB](exercice4_mongodb.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 5 - Mongoose](exercice5_mongoose.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 7 - Express et JWT](exercice7_express_jwt.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 8 - React](exercice8_react.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 9 - React et styles](exercice9_react_styles.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 10 - Contexte et API](exercice10_context.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 11 - Internatialisation](exercice11_internationalisation.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 12 - Authentification](exercice12_authentification.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 13 - PWA](exercice13_pwa.md)</t>
-  </si>
-  <si>
-    <t>[Exercice 14 - Netlify](exercice14_netlify.md)</t>
+    <t>Semaine</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 14 - qtDesigner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>](</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex14_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 13 - pyQT5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex13_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 12 - pyCRUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex12_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 11 - Gestion des utilisateurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex11_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 10 - Exercice sur les curseurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex10_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 09 - Crédit social</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex09_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 08 - Exercice sur les fonctions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex08_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 05 - Exercice sur les INSERTs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex05_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)&lt;br/&gt;[Exercice 06 - Exercice sur les VIEWs](exercices/ex06_enonce.md)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 07 - Exercice sur les TRIGGERs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex07_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 04 - Modélisation d'un livre de recettes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex04_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 03 - Système de stationnement du cégep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex03_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 02 - Système de prise de présence en cours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex02_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 01 - Revision MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex01_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Présentation du cours&lt;br/&gt; [DBeaver](outils/dbeaver.md)</t>
+  </si>
+  <si>
+    <t>Retour sur exercice 01&lt;br/&gt;
+[Introduction modélisation](modelisation/definition_modelisation.md)&lt;br/&gt;
+[Modèle Entité-Association](modelisation/modele_entites_relations.md)&lt;br/&gt;
+[Schéma conceptuel](modelisation/schema_conceptuel.md)&lt;br/&gt;
+[Types de relations](modelisation/types_relations.md)&lt;br/&gt;
+Exercice 02 à faire ensemble&lt;br/&gt;
+[Normalisation](modelisation/normalisation.md)</t>
+  </si>
+  <si>
+    <t>Exercice 03 - Le système de stationnement du cégep (partie A)&lt;br/&gt;
+Théorie sur les diagrammes de classes&lt;br/&gt;
+Présentation de l'outil drawio&lt;br/&gt;
+[Convention de nommage MySQL](mysql/convention.md)&lt;br/&gt;
+Exercice 03B - Créer le diagramme de classes du système&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Retour sur l'exercice 03&lt;br/&gt;
+[Création d'une base de données](mysql/creation_table.md)&lt;br/&gt;
+Exercice 04 - Livre de recette</t>
+  </si>
+  <si>
+    <t>Retour sur l'exercice 04&lt;br/&gt;
+[Insertion&gt;(mysql/insertion.md) + Exercice 05&lt;br/&gt;
+[Vues](mysql/vues.md) + Exercice 06</t>
+  </si>
+  <si>
+    <t>[Déclencheurs](mysql/declencheurs.md)</t>
+  </si>
+  <si>
+    <t>Retour sur formatif &lt;br/&gt; 
+[Fonctions](mysql/fonctions.md)&lt;br/&gt;
+Exercice 08&lt;br/&gt;
+[Types de jointures](mysql/types_jointures.md)</t>
+  </si>
+  <si>
+    <t>[Procédures stockées](mysql/procedures.md)&lt;br/&gt;
+[Transactions](mysql/transactions.md)&lt;br/&gt;
+[Gestion des erreurs](mysql/gestion_erreurs.md)&lt;br/&gt;
+[Curseurs](mysql/curseurs.md)&lt;br/&gt;
+Exercice 09</t>
+  </si>
+  <si>
+    <t>Finaliser Exercice 09</t>
+  </si>
+  <si>
+    <t>Révision</t>
+  </si>
+  <si>
+    <t>__Examen 1 (35%)__</t>
+  </si>
+  <si>
+    <t>Retour sur l'examen 1&lt;br/&gt;
+Retour sur les curseurs et la gestion d'erreurs, les joins et union&lt;br/&gt;
+Exercice 10</t>
+  </si>
+  <si>
+    <t>[Utilisateurs](mysql/utilisateurs.md)&lt;br/&gt;
+[Autorisations](mysql/autorisations.md)&lt;br/&gt;
+[Rôles](mysql/roles.md)&lt;br/&gt;
+Exercice 11</t>
+  </si>
+  <si>
+    <t>[Installation de Python](python/installation.md)&lt;br/&gt;
+[Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
+Exercice 12</t>
+  </si>
+  <si>
+    <t>Exercice 12</t>
+  </si>
+  <si>
+    <t>[PyQT5](python/libpyqt.md)&lt;br/&gt;
+Exercice 13</t>
+  </si>
+  <si>
+    <t>[qtDesigner](python/qtdesigner.md)&lt;br/&gt;
+Exercice 14</t>
+  </si>
+  <si>
+    <t>Exercice 14</t>
+  </si>
+  <si>
+    <t>Début projet long</t>
+  </si>
+  <si>
+    <t>projet long</t>
+  </si>
+  <si>
+    <t>Révision analyse</t>
+  </si>
+  <si>
+    <t>Formatif partie 1</t>
+  </si>
+  <si>
+    <t>Formatif partie 2</t>
+  </si>
+  <si>
+    <t>__Présentation et remise du projet long (15%)__</t>
+  </si>
+  <si>
+    <t>__Évaluation finale partie 1__</t>
+  </si>
+  <si>
+    <t>__Évaluation finale partie 2__</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +1004,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6796E6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -296,10 +1068,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,402 +1393,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="142.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>38</v>
+      <c r="D31" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notescours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF55DEA0-C49F-AE46-B9F5-972C16586BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B05AFB-CA9B-654D-BB9D-44D015CABD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -140,115 +140,7 @@
     <t>Exercice</t>
   </si>
   <si>
-    <t>Évaluation formative</t>
-  </si>
-  <si>
     <t>Semaine</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 14 - qtDesigner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>](</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex14_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 13 - pyQT5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex13_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -890,13 +782,6 @@
 [Normalisation](modelisation/normalisation.md)</t>
   </si>
   <si>
-    <t>Exercice 03 - Le système de stationnement du cégep (partie A)&lt;br/&gt;
-Théorie sur les diagrammes de classes&lt;br/&gt;
-Présentation de l'outil drawio&lt;br/&gt;
-[Convention de nommage MySQL](mysql/convention.md)&lt;br/&gt;
-Exercice 03B - Créer le diagramme de classes du système&lt;br/&gt;</t>
-  </si>
-  <si>
     <t>Retour sur l'exercice 03&lt;br/&gt;
 [Création d'une base de données](mysql/creation_table.md)&lt;br/&gt;
 Exercice 04 - Livre de recette</t>
@@ -951,20 +836,6 @@
     <t>Exercice 12</t>
   </si>
   <si>
-    <t>[PyQT5](python/libpyqt.md)&lt;br/&gt;
-Exercice 13</t>
-  </si>
-  <si>
-    <t>[qtDesigner](python/qtdesigner.md)&lt;br/&gt;
-Exercice 14</t>
-  </si>
-  <si>
-    <t>Exercice 14</t>
-  </si>
-  <si>
-    <t>Début projet long</t>
-  </si>
-  <si>
     <t>projet long</t>
   </si>
   <si>
@@ -984,6 +855,19 @@
   </si>
   <si>
     <t>__Évaluation finale partie 2__</t>
+  </si>
+  <si>
+    <t>Évaluation formative formelle</t>
+  </si>
+  <si>
+    <t>Début [projet long](evaluations/projet_long.md)</t>
+  </si>
+  <si>
+    <t>Exercice 03 - Le système de stationnement du cégep (partie A)&lt;br/&gt;
+[Théorie sur les diagrammes de classes](modelisation/classes.md)&lt;br/&gt;
+Présentation de l'outil drawio&lt;br/&gt;
+[Convention de nommage MySQL](mysql/convention.md)&lt;br/&gt;
+Exercice 03B - Créer le diagramme de classes du système&lt;br/&gt;</t>
   </si>
 </sst>
 </file>
@@ -1395,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1291,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1433,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1450,10 +1334,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1467,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1484,10 +1368,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1501,10 +1385,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1518,10 +1402,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1535,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1549,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1566,10 +1450,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1583,10 +1467,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1600,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1628,10 +1512,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1645,10 +1529,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1662,10 +1546,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,13 +1563,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1695,14 +1579,12 @@
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1712,12 +1594,10 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1730,11 +1610,9 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1747,7 +1625,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1761,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1775,7 +1653,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1789,7 +1667,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1803,7 +1681,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1817,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1831,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1845,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1859,7 +1737,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1873,7 +1751,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,7 +1765,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notescours/bd2/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B05AFB-CA9B-654D-BB9D-44D015CABD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D59B4B-3A9A-0E42-A479-83E26FBD3FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -314,490 +314,480 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 09 - Crédit social</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex09_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 08 - Exercice sur les fonctions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex08_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 05 - Exercice sur les INSERTs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex05_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)&lt;br/&gt;[Exercice 06 - Exercice sur les VIEWs](exercices/ex06_enonce.md)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 07 - Exercice sur les TRIGGERs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex07_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 04 - Modélisation d'un livre de recettes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex04_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 03 - Système de stationnement du cégep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex03_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 02 - Système de prise de présence en cours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex02_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>Exercice 01 - Revision MySQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>exercices/ex01_enonce.md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6796E6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>Présentation du cours&lt;br/&gt; [DBeaver](outils/dbeaver.md)</t>
   </si>
   <si>
-    <t>Retour sur exercice 01&lt;br/&gt;
+    <t>[Déclencheurs](mysql/declencheurs.md)</t>
+  </si>
+  <si>
+    <t>Révision</t>
+  </si>
+  <si>
+    <t>__Examen 1 (35%)__</t>
+  </si>
+  <si>
+    <t>[Utilisateurs](mysql/utilisateurs.md)&lt;br/&gt;
+[Autorisations](mysql/autorisations.md)&lt;br/&gt;
+[Rôles](mysql/roles.md)&lt;br/&gt;
+Exercice 11</t>
+  </si>
+  <si>
+    <t>[Installation de Python](python/installation.md)&lt;br/&gt;
+[Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
+Exercice 12</t>
+  </si>
+  <si>
+    <t>Exercice 12</t>
+  </si>
+  <si>
+    <t>projet long</t>
+  </si>
+  <si>
+    <t>Révision analyse</t>
+  </si>
+  <si>
+    <t>Formatif partie 1</t>
+  </si>
+  <si>
+    <t>Formatif partie 2</t>
+  </si>
+  <si>
+    <t>__Présentation et remise du projet long (15%)__</t>
+  </si>
+  <si>
+    <t>__Évaluation finale partie 1__</t>
+  </si>
+  <si>
+    <t>__Évaluation finale partie 2__</t>
+  </si>
+  <si>
+    <t>Évaluation formative formelle</t>
+  </si>
+  <si>
+    <t>Début [projet long](evaluations/projet_long.md)</t>
+  </si>
+  <si>
+    <t>Retour sur exercice 1&lt;br/&gt;
 [Introduction modélisation](modelisation/definition_modelisation.md)&lt;br/&gt;
 [Modèle Entité-Association](modelisation/modele_entites_relations.md)&lt;br/&gt;
 [Schéma conceptuel](modelisation/schema_conceptuel.md)&lt;br/&gt;
 [Types de relations](modelisation/types_relations.md)&lt;br/&gt;
-Exercice 02 à faire ensemble&lt;br/&gt;
+Exercice 2 à faire ensemble&lt;br/&gt;
 [Normalisation](modelisation/normalisation.md)</t>
   </si>
   <si>
-    <t>Retour sur l'exercice 03&lt;br/&gt;
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 1 - Revision MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex01_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 2 - Système de prise de présence en cours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex02_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 3 - Système de stationnement du Cégep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex03_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 4 - Modélisation d'un livre de recettes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex04_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 5 - Exercice sur les insertions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex05_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)&lt;br/&gt;[Exercice 6 - Exercice sur les vues](exercices/ex06_enonce.md)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 7 - Exercice sur les déclencheurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex07_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 8 - Exercice sur les fonctions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex08_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Retour sur l'exercice 3&lt;br/&gt;
 [Création d'une base de données](mysql/creation_table.md)&lt;br/&gt;
-Exercice 04 - Livre de recette</t>
-  </si>
-  <si>
-    <t>Retour sur l'exercice 04&lt;br/&gt;
-[Insertion&gt;(mysql/insertion.md) + Exercice 05&lt;br/&gt;
-[Vues](mysql/vues.md) + Exercice 06</t>
-  </si>
-  <si>
-    <t>[Déclencheurs](mysql/declencheurs.md)</t>
+Exercice 4 - Livre de recette</t>
+  </si>
+  <si>
+    <t>Retour sur l'exercice 4&lt;br/&gt;
+[Insertion](mysql/insertion.md) + Exercice 5&lt;br/&gt;
+[Vues](mysql/vues.md) + Exercice 6</t>
   </si>
   <si>
     <t>Retour sur formatif &lt;br/&gt; 
 [Fonctions](mysql/fonctions.md)&lt;br/&gt;
-Exercice 08&lt;br/&gt;
+Exercice 8&lt;br/&gt;
 [Types de jointures](mysql/types_jointures.md)</t>
   </si>
   <si>
@@ -805,69 +795,79 @@
 [Transactions](mysql/transactions.md)&lt;br/&gt;
 [Gestion des erreurs](mysql/gestion_erreurs.md)&lt;br/&gt;
 [Curseurs](mysql/curseurs.md)&lt;br/&gt;
-Exercice 09</t>
-  </si>
-  <si>
-    <t>Finaliser Exercice 09</t>
-  </si>
-  <si>
-    <t>Révision</t>
-  </si>
-  <si>
-    <t>__Examen 1 (35%)__</t>
+Exercice 9</t>
+  </si>
+  <si>
+    <t>Finaliser Exercice 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 9 - Crédit social</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex09_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Retour sur l'examen 1&lt;br/&gt;
-Retour sur les curseurs et la gestion d'erreurs, les joins et union&lt;br/&gt;
+Retour sur les curseurs et la gestion d'erreurs, les jointures et union&lt;br/&gt;
 Exercice 10</t>
   </si>
   <si>
-    <t>[Utilisateurs](mysql/utilisateurs.md)&lt;br/&gt;
-[Autorisations](mysql/autorisations.md)&lt;br/&gt;
-[Rôles](mysql/roles.md)&lt;br/&gt;
-Exercice 11</t>
-  </si>
-  <si>
-    <t>[Installation de Python](python/installation.md)&lt;br/&gt;
-[Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
-Exercice 12</t>
-  </si>
-  <si>
-    <t>Exercice 12</t>
-  </si>
-  <si>
-    <t>projet long</t>
-  </si>
-  <si>
-    <t>Révision analyse</t>
-  </si>
-  <si>
-    <t>Formatif partie 1</t>
-  </si>
-  <si>
-    <t>Formatif partie 2</t>
-  </si>
-  <si>
-    <t>__Présentation et remise du projet long (15%)__</t>
-  </si>
-  <si>
-    <t>__Évaluation finale partie 1__</t>
-  </si>
-  <si>
-    <t>__Évaluation finale partie 2__</t>
-  </si>
-  <si>
-    <t>Évaluation formative formelle</t>
-  </si>
-  <si>
-    <t>Début [projet long](evaluations/projet_long.md)</t>
-  </si>
-  <si>
-    <t>Exercice 03 - Le système de stationnement du cégep (partie A)&lt;br/&gt;
+    <t>Exercice 3 - Le système de stationnement du Cégep (partie A)&lt;br/&gt;
 [Théorie sur les diagrammes de classes](modelisation/classes.md)&lt;br/&gt;
-Présentation de l'outil drawio&lt;br/&gt;
+[Présentation de l'outil drawio](outils/drawio.md)&lt;br/&gt;
 [Convention de nommage MySQL](mysql/convention.md)&lt;br/&gt;
-Exercice 03B - Créer le diagramme de classes du système&lt;br/&gt;</t>
+Exercice 3B - Créer le diagramme de classes du système&lt;br/&gt;</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1334,10 +1334,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1368,10 +1368,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1385,10 +1385,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1402,10 +1402,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1450,10 +1450,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1467,10 +1467,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1484,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1498,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
@@ -1529,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>36</v>
@@ -1546,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>35</v>
@@ -1563,7 +1563,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>35</v>
@@ -1580,7 +1580,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1595,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1610,7 +1610,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1625,7 +1625,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1653,7 +1653,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1667,7 +1667,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1681,7 +1681,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1723,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1737,7 +1737,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1751,7 +1751,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1765,7 +1765,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D59B4B-3A9A-0E42-A479-83E26FBD3FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96F3B0-DD07-B643-ABC4-3B22C6EA0A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -868,6 +868,66 @@
 [Présentation de l'outil drawio](outils/drawio.md)&lt;br/&gt;
 [Convention de nommage MySQL](mysql/convention.md)&lt;br/&gt;
 Exercice 3B - Créer le diagramme de classes du système&lt;br/&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exercice 13 - Flask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>exercices/ex13_enonce.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>[Flask](python/flask.md)&lt;br/&gt;Exercice 13</t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,7 +1629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1579,10 +1639,12 @@
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1595,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3"/>
     </row>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D96F3B0-DD07-B643-ABC4-3B22C6EA0A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9EF25-5B26-C342-8C97-592AB74AFD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -36,99 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
-  </si>
-  <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
-    <t>2023-09-11</t>
-  </si>
-  <si>
-    <t>2023-09-13</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-20</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>2023-10-02</t>
-  </si>
-  <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
-  </si>
-  <si>
-    <t>2023-10-25</t>
-  </si>
-  <si>
-    <t>2023-10-30</t>
-  </si>
-  <si>
-    <t>2023-11-01</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2023-11-22</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
-    <t>2023-11-29</t>
-  </si>
-  <si>
-    <t>2023-12-04</t>
-  </si>
-  <si>
-    <t>2023-12-06</t>
-  </si>
-  <si>
-    <t>2023-12-11</t>
-  </si>
-  <si>
-    <t>2023-12-15</t>
   </si>
   <si>
     <t>Cours</t>
@@ -975,18 +885,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1001,21 +905,17 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF95B3D7"/>
+        <color theme="5"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF95B3D7"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1023,6 +923,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1351,19 +1252,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,14 +1274,14 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="C2" s="4">
+        <v>45525.552083333336</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1390,14 +1291,14 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>56</v>
+      <c r="C3" s="4">
+        <v>45530.34375</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1407,14 +1308,14 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>57</v>
+      <c r="C4" s="4">
+        <v>45532.552083333336</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1424,14 +1325,14 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>58</v>
+      <c r="C5" s="4">
+        <v>45540.34375</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1441,14 +1342,14 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>59</v>
+      <c r="C6" s="4">
+        <v>45544.34375</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,14 +1359,14 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
+      <c r="C7" s="4">
+        <v>45546.552083333336</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,11 +1376,11 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
+      <c r="C8" s="4">
+        <v>45551.34375</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1489,14 +1390,14 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>61</v>
+      <c r="C9" s="4">
+        <v>45553.552083333336</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1506,14 +1407,14 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>67</v>
+      <c r="C10" s="4">
+        <v>45558.34375</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1523,14 +1424,14 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" s="4">
+        <v>45560.552083333336</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1540,11 +1441,11 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
+      <c r="C12" s="4">
+        <v>45565.34375</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1554,11 +1455,11 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
+      <c r="C13" s="4">
+        <v>45567.552083333336</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1568,14 +1469,14 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
+      <c r="C14" s="4">
+        <v>45572.34375</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1585,14 +1486,14 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
+      <c r="C15" s="4">
+        <v>45574.552083333336</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1602,14 +1503,14 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
+      <c r="C16" s="4">
+        <v>45586.34375</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1619,14 +1520,14 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
+      <c r="C17" s="4">
+        <v>45588.552083333336</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1636,14 +1537,14 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>70</v>
+      <c r="C18" s="4">
+        <v>45593.34375</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1653,13 +1554,13 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
+      <c r="C19" s="4">
+        <v>45595.552083333336</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1668,13 +1569,13 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
+      <c r="C20" s="4">
+        <v>45600.34375</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1683,11 +1584,11 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
+      <c r="C21" s="4">
+        <v>45604.552083333336</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1697,11 +1598,11 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
+      <c r="C22" s="4">
+        <v>45607.34375</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1711,11 +1612,11 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
+      <c r="C23" s="4">
+        <v>45609.552083333336</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1725,11 +1626,11 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
+      <c r="C24" s="4">
+        <v>45614.34375</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1739,11 +1640,11 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>24</v>
+      <c r="C25" s="4">
+        <v>45616.552083333336</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1753,11 +1654,11 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
+      <c r="C26" s="4">
+        <v>45621.34375</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,11 +1668,11 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>26</v>
+      <c r="C27" s="4">
+        <v>45623.552083333336</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1781,11 +1682,11 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
+      <c r="C28" s="4">
+        <v>45628.34375</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1795,11 +1696,11 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
+      <c r="C29" s="4">
+        <v>45630.552083333336</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1809,11 +1710,11 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
+      <c r="C30" s="4">
+        <v>45635.34375</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1823,11 +1724,11 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
+      <c r="C31" s="4">
+        <v>45637.552083333336</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9EF25-5B26-C342-8C97-592AB74AFD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7897E2D-94A8-4C4E-9494-58E4DB66142E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -242,11 +242,6 @@
 Exercice 11</t>
   </si>
   <si>
-    <t>[Installation de Python](python/installation.md)&lt;br/&gt;
-[Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
-Exercice 12</t>
-  </si>
-  <si>
     <t>Exercice 12</t>
   </si>
   <si>
@@ -838,6 +833,12 @@
   </si>
   <si>
     <t>[Flask](python/flask.md)&lt;br/&gt;Exercice 13</t>
+  </si>
+  <si>
+    <t>[Installation de Python](python/installation.md)&lt;br/&gt;
+[Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
+[PyDoc](python/documentation.md)&lt;br/&gt;
+Exercice 12</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1295,10 +1296,10 @@
         <v>45530.34375</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1312,10 +1313,10 @@
         <v>45532.552083333336</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1329,10 +1330,10 @@
         <v>45540.34375</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1346,10 +1347,10 @@
         <v>45544.34375</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1366,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1380,7 +1381,7 @@
         <v>45551.34375</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1394,10 +1395,10 @@
         <v>45553.552083333336</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1411,10 +1412,10 @@
         <v>45558.34375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1428,10 +1429,10 @@
         <v>45560.552083333336</v>
       </c>
       <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1473,7 +1474,7 @@
         <v>45572.34375</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -1496,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>45586.34375</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
@@ -1524,7 +1525,7 @@
         <v>45588.552083333336</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
@@ -1541,10 +1542,10 @@
         <v>45593.34375</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1558,7 +1559,7 @@
         <v>45595.552083333336</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1573,7 +1574,7 @@
         <v>45600.34375</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1588,7 +1589,7 @@
         <v>45604.552083333336</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1602,7 +1603,7 @@
         <v>45607.34375</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1616,7 +1617,7 @@
         <v>45609.552083333336</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1630,7 +1631,7 @@
         <v>45614.34375</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1644,7 +1645,7 @@
         <v>45616.552083333336</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1658,7 +1659,7 @@
         <v>45621.34375</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1672,7 +1673,7 @@
         <v>45623.552083333336</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1686,7 +1687,7 @@
         <v>45628.34375</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1700,7 +1701,7 @@
         <v>45630.552083333336</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1714,7 +1715,7 @@
         <v>45635.34375</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1728,7 +1729,7 @@
         <v>45637.552083333336</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7897E2D-94A8-4C4E-9494-58E4DB66142E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E323FB9-78CE-9840-AD42-40AE22E8511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
   <sheets>
     <sheet name="horaire" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -696,13 +696,6 @@
 [Types de jointures](mysql/types_jointures.md)</t>
   </si>
   <si>
-    <t>[Procédures stockées](mysql/procedures.md)&lt;br/&gt;
-[Transactions](mysql/transactions.md)&lt;br/&gt;
-[Gestion des erreurs](mysql/gestion_erreurs.md)&lt;br/&gt;
-[Curseurs](mysql/curseurs.md)&lt;br/&gt;
-Exercice 9</t>
-  </si>
-  <si>
     <t>Finaliser Exercice 9</t>
   </si>
   <si>
@@ -839,6 +832,73 @@
 [Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
 [PyDoc](python/documentation.md)&lt;br/&gt;
 Exercice 12</t>
+  </si>
+  <si>
+    <t>[Transactions](mysql/transactions.md)&lt;br/&gt;
+[Procédures stockées](mysql/procedures.md)&lt;br/&gt;
+[Gestion des erreurs](mysql/gestion_erreurs.md)&lt;br/&gt;
+[Curseurs](mysql/curseurs.md)&lt;br/&gt;
+Exercice 9</t>
+  </si>
+  <si>
+    <t>Retour sur formatif</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>Révision Modélisation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluations/revision_modelisation.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6796E6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1241,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,7 +1373,7 @@
         <v>45532.552083333336</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
@@ -1412,10 +1472,10 @@
         <v>45558.34375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1429,10 +1489,10 @@
         <v>45560.552083333336</v>
       </c>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1448,6 +1508,9 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1474,7 +1537,7 @@
         <v>45572.34375</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -1508,7 +1571,7 @@
         <v>45586.34375</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
@@ -1542,10 +1605,10 @@
         <v>45593.34375</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,7 +1708,7 @@
         <v>45616.552083333336</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1659,7 +1722,7 @@
         <v>45621.34375</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1673,7 +1736,7 @@
         <v>45623.552083333336</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1687,7 +1750,7 @@
         <v>45628.34375</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1701,7 +1764,7 @@
         <v>45630.552083333336</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E323FB9-78CE-9840-AD42-40AE22E8511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256AF946-0D92-204F-9D6B-0BD0060807D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -756,11 +756,6 @@
     </r>
   </si>
   <si>
-    <t>Retour sur l'examen 1&lt;br/&gt;
-Retour sur les curseurs et la gestion d'erreurs, les jointures et union&lt;br/&gt;
-Exercice 10</t>
-  </si>
-  <si>
     <t>Exercice 3 - Le système de stationnement du Cégep (partie A)&lt;br/&gt;
 [Théorie sur les diagrammes de classes](modelisation/classes.md)&lt;br/&gt;
 [Présentation de l'outil drawio](outils/drawio.md)&lt;br/&gt;
@@ -828,12 +823,6 @@
     <t>[Flask](python/flask.md)&lt;br/&gt;Exercice 13</t>
   </si>
   <si>
-    <t>[Installation de Python](python/installation.md)&lt;br/&gt;
-[Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
-[PyDoc](python/documentation.md)&lt;br/&gt;
-Exercice 12</t>
-  </si>
-  <si>
     <t>[Transactions](mysql/transactions.md)&lt;br/&gt;
 [Procédures stockées](mysql/procedures.md)&lt;br/&gt;
 [Gestion des erreurs](mysql/gestion_erreurs.md)&lt;br/&gt;
@@ -899,6 +888,19 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Retour sur l'examen 1&lt;br/&gt;
+Exercice 10</t>
+  </si>
+  <si>
+    <t>[Installation de Python](python/installation.md)&lt;br/&gt;
+[Environnements virtuels](python/venv.md)&lt;br/&gt;
+[PIP](python/pip.md)&lt;br/&gt;
+[DotEnv](python/dotenv.md)&lt;br/&gt;
+[Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
+[PyDoc](python/documentation.md)&lt;br/&gt;
+Exercice 12</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1375,7 @@
         <v>45532.552083333336</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
@@ -1472,7 +1474,7 @@
         <v>45558.34375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>35</v>
@@ -1509,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,7 +1528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>45572.34375</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -1560,7 +1562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1571,7 +1573,7 @@
         <v>45586.34375</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
@@ -1605,10 +1607,10 @@
         <v>45593.34375</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1764,7 +1766,7 @@
         <v>45630.552083333336</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256AF946-0D92-204F-9D6B-0BD0060807D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD648B-964D-C443-86EB-1BF0E23BAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D1181-B3CD-EE43-9E3F-518A899CAD6B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1596,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1606,14 +1606,14 @@
       <c r="C18" s="4">
         <v>45593.34375</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1623,10 +1623,12 @@
       <c r="C19" s="4">
         <v>45595.552083333336</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1639,7 +1641,7 @@
         <v>45600.34375</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1"/>
     </row>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd2/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DD648B-964D-C443-86EB-1BF0E23BAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448ED297-391E-6845-B5DF-AA00A0BD5CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1920" windowWidth="27240" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -257,9 +257,6 @@
     <t>Formatif partie 2</t>
   </si>
   <si>
-    <t>__Présentation et remise du projet long (15%)__</t>
-  </si>
-  <si>
     <t>__Évaluation finale partie 1__</t>
   </si>
   <si>
@@ -901,6 +898,9 @@
 [Utilisation du connecteur MySQL](python/mysql_connector.md)&lt;br/&gt;
 [PyDoc](python/documentation.md)&lt;br/&gt;
 Exercice 12</t>
+  </si>
+  <si>
+    <t>__Fin et remise du projet long (15%)__</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1358,10 +1358,10 @@
         <v>45530.34375</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1375,10 +1375,10 @@
         <v>45532.552083333336</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1392,10 +1392,10 @@
         <v>45540.34375</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1409,10 +1409,10 @@
         <v>45544.34375</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1429,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1443,7 +1443,7 @@
         <v>45551.34375</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -1457,10 +1457,10 @@
         <v>45553.552083333336</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
         <v>45558.34375</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1491,10 +1491,10 @@
         <v>45560.552083333336</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1511,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>45572.34375</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -1573,7 +1573,7 @@
         <v>45586.34375</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
@@ -1624,10 +1624,10 @@
         <v>45595.552083333336</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>45600.34375</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1712,7 +1712,7 @@
         <v>45616.552083333336</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1768,7 +1768,7 @@
         <v>45630.552083333336</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
         <v>45635.34375</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1796,7 +1796,7 @@
         <v>45637.552083333336</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
